--- a/nmadb/482415.xlsx
+++ b/nmadb/482415.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22100" windowHeight="11780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Harmful</t>
   </si>
   <si>
-    <t>SMD (t1 vs.t1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMD in allergic rhinitis score </t>
   </si>
   <si>
@@ -131,13 +128,25 @@
   </si>
   <si>
     <t>Jutel</t>
+  </si>
+  <si>
+    <t>EFFECT=SMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -400,6 +409,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,30 +724,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="6" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="6"/>
-    <col min="5" max="5" width="8.83203125" style="12"/>
-    <col min="6" max="6" width="15.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="7"/>
-    <col min="8" max="8" width="9.1640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="8.85546875" style="12"/>
+    <col min="6" max="6" width="15.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="9" max="9" width="9.140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -745,28 +765,31 @@
         <v>8</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="6">
         <v>2007</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -780,22 +803,26 @@
       <c r="F2" s="36">
         <v>-0.43</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="42">
+        <f>(I2-H2)/(1.96^2)</f>
+        <v>0.11713869221157854</v>
+      </c>
+      <c r="H2" s="11">
         <v>-0.66</v>
       </c>
-      <c r="H2" s="37">
+      <c r="I2" s="37">
         <v>-0.21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -809,22 +836,26 @@
       <c r="F3" s="36">
         <v>-0.37</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="42">
+        <f>(I3-H3)/(1.96^2)</f>
+        <v>0.11713869221157851</v>
+      </c>
+      <c r="H3" s="11">
         <v>-0.6</v>
       </c>
-      <c r="H3" s="37">
+      <c r="I3" s="37">
         <v>-0.15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="6">
         <v>2007</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -838,23 +869,27 @@
       <c r="F4" s="36">
         <v>-0.5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="42">
+        <f t="shared" ref="G4:G22" si="0">(I4-H4)/(1.96^2)</f>
+        <v>0.20564348188254897</v>
+      </c>
+      <c r="H4" s="11">
         <v>-0.9</v>
       </c>
-      <c r="H4" s="37">
+      <c r="I4" s="37">
         <v>-0.11</v>
       </c>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -868,29 +903,33 @@
       <c r="F5" s="36">
         <v>-0.78</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="42">
+        <f t="shared" si="0"/>
+        <v>0.22386505622657227</v>
+      </c>
+      <c r="H5" s="11">
         <v>-1.21</v>
       </c>
-      <c r="H5" s="37">
+      <c r="I5" s="37">
         <v>-0.35</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="15">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -904,27 +943,31 @@
       <c r="F6" s="36">
         <v>-0.44</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="42">
+        <f t="shared" si="0"/>
+        <v>0.12234485630987091</v>
+      </c>
+      <c r="H6" s="11">
         <v>-0.67</v>
       </c>
-      <c r="H6" s="38">
+      <c r="I6" s="38">
         <v>-0.2</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="17">
+      <c r="K6" s="23"/>
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -938,27 +981,31 @@
       <c r="F7" s="36">
         <v>-0.53</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="42">
+        <f t="shared" si="0"/>
+        <v>0.10152019991670137</v>
+      </c>
+      <c r="H7" s="11">
         <v>-0.72</v>
       </c>
-      <c r="H7" s="37">
+      <c r="I7" s="37">
         <v>-0.33</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20">
+      <c r="K7" s="19"/>
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="M7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="6">
         <v>2011</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
@@ -972,27 +1019,31 @@
       <c r="F8" s="36">
         <v>-0.48</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="42">
+        <f t="shared" si="0"/>
+        <v>9.8917117867555207E-2</v>
+      </c>
+      <c r="H8" s="11">
         <v>-0.67</v>
       </c>
-      <c r="H8" s="37">
+      <c r="I8" s="37">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="21">
+      <c r="K8" s="29"/>
+      <c r="L8" s="21">
         <v>4</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1">
+      <c r="M8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" customHeight="1">
       <c r="A9" s="6">
         <v>2006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
@@ -1006,23 +1057,29 @@
       <c r="F9" s="36">
         <v>-0.64</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="42">
+        <f t="shared" si="0"/>
+        <v>0.20564348188254897</v>
+      </c>
+      <c r="H9" s="11">
         <v>-1.03</v>
       </c>
-      <c r="H9" s="37">
+      <c r="I9" s="37">
         <v>-0.24</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="K9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="6">
         <v>2006</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -1036,23 +1093,27 @@
       <c r="F10" s="36">
         <v>-0.21</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="42">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157852</v>
+      </c>
+      <c r="H10" s="11">
         <v>-0.44</v>
       </c>
-      <c r="H10" s="37">
+      <c r="I10" s="37">
         <v>0.01</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
@@ -1066,23 +1127,27 @@
       <c r="F11" s="36">
         <v>-0.52</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="42">
+        <f t="shared" si="0"/>
+        <v>8.3298625572678073E-2</v>
+      </c>
+      <c r="H11" s="11">
         <v>-0.68</v>
       </c>
-      <c r="H11" s="37">
+      <c r="I11" s="37">
         <v>-0.36</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="K11" s="25"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
@@ -1096,23 +1161,27 @@
       <c r="F12" s="36">
         <v>-0.48</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="42">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157851</v>
+      </c>
+      <c r="H12" s="11">
         <v>-0.71</v>
       </c>
-      <c r="H12" s="37">
+      <c r="I12" s="37">
         <v>-0.26</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="K12" s="25"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="6">
         <v>2009</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
@@ -1126,23 +1195,27 @@
       <c r="F13" s="36">
         <v>-0.22</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="42">
+        <f t="shared" si="0"/>
+        <v>0.13015410245730946</v>
+      </c>
+      <c r="H13" s="11">
         <v>-0.47</v>
       </c>
-      <c r="H13" s="37">
+      <c r="I13" s="37">
         <v>0.03</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="6">
         <v>2011</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
@@ -1156,23 +1229,27 @@
       <c r="F14" s="36">
         <v>-0.23</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="42">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413994</v>
+      </c>
+      <c r="H14" s="11">
         <v>-0.44</v>
       </c>
-      <c r="H14" s="37">
+      <c r="I14" s="37">
         <v>-0.02</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="K14" s="25"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="6">
         <v>2011</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
@@ -1186,23 +1263,27 @@
       <c r="F15" s="36">
         <v>-0.19</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="42">
+        <f t="shared" si="0"/>
+        <v>9.6314035818409E-2</v>
+      </c>
+      <c r="H15" s="11">
         <v>-0.38</v>
       </c>
-      <c r="H15" s="37">
+      <c r="I15" s="37">
         <v>-0.01</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="25"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="6">
         <v>1997</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
@@ -1216,23 +1297,27 @@
       <c r="F16" s="36">
         <v>-0.45</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="42">
+        <f t="shared" si="0"/>
+        <v>0.22386505622657227</v>
+      </c>
+      <c r="H16" s="11">
         <v>-0.88</v>
       </c>
-      <c r="H16" s="37">
+      <c r="I16" s="37">
         <v>-0.02</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="K16" s="25"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="6">
         <v>2006</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6">
         <v>16</v>
@@ -1246,23 +1331,27 @@
       <c r="F17" s="36">
         <v>-0.3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="42">
+        <f t="shared" si="0"/>
+        <v>0.1431695127030404</v>
+      </c>
+      <c r="H17" s="11">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="H17" s="37">
+      <c r="I17" s="37">
         <v>-0.02</v>
       </c>
-      <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="25"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="6">
         <v>2006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6">
         <v>17</v>
@@ -1276,19 +1365,23 @@
       <c r="F18" s="36">
         <v>-0.36</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="42">
+        <f t="shared" si="0"/>
+        <v>0.12234485630987089</v>
+      </c>
+      <c r="H18" s="11">
         <v>-0.6</v>
       </c>
-      <c r="H18" s="37">
+      <c r="I18" s="37">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="6">
         <v>2001</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6">
         <v>18</v>
@@ -1302,19 +1395,23 @@
       <c r="F19" s="36">
         <v>-0.47</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="42">
+        <f t="shared" si="0"/>
+        <v>0.16139108704706373</v>
+      </c>
+      <c r="H19" s="11">
         <v>-0.78</v>
       </c>
-      <c r="H19" s="37">
+      <c r="I19" s="37">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="6">
         <v>2011</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
         <v>19</v>
@@ -1328,19 +1425,23 @@
       <c r="F20" s="36">
         <v>-0.19</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="42">
+        <f t="shared" si="0"/>
+        <v>6.2473969179508544E-2</v>
+      </c>
+      <c r="H20" s="11">
         <v>-0.31</v>
       </c>
-      <c r="H20" s="37">
+      <c r="I20" s="37">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="6">
         <v>2005</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6">
         <v>20</v>
@@ -1354,19 +1455,23 @@
       <c r="F21" s="7">
         <v>-0.41</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="42">
+        <f t="shared" si="0"/>
+        <v>0.16659725114535612</v>
+      </c>
+      <c r="H21" s="7">
         <v>-0.73</v>
       </c>
-      <c r="H21" s="31">
+      <c r="I21" s="31">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="6">
         <v>2005</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6">
         <v>21</v>
@@ -1380,22 +1485,26 @@
       <c r="F22" s="7">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="42">
+        <f t="shared" si="0"/>
+        <v>0.27592669720949609</v>
+      </c>
+      <c r="H22" s="11">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="H22" s="31">
+      <c r="I22" s="31">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="G24" s="11"/>
+    <row r="23" spans="1:14">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -1408,12 +1517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1425,12 +1534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
